--- a/app/src/main/assets/jiankangyizhan.xlsx
+++ b/app/src/main/assets/jiankangyizhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miku/project/Map/app/src/main/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奔雷手文泰来\Desktop\Map\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF7AAA-893D-9B46-912E-931DA93954F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996071D-33DE-4399-8644-43E94C9AF95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="15520" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,18 +498,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35" customHeight="1">
+    <row r="2" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="61" customHeight="1">
+    <row r="3" spans="1:6" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>100.162673</v>
+        <v>116.303292</v>
       </c>
       <c r="E4">
-        <v>25.689778</v>
+        <v>39.90831</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
